--- a/test_cases/PE-16/TC-00-Principal.xlsx
+++ b/test_cases/PE-16/TC-00-Principal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ramiro\Documents\GitHub\TestingAplicaciones-Alvinylasardillas-TPO\test_cases\PE-16\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{610785DD-D9EB-411F-B9F7-40DC976A4554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAFDD2FC-B90E-4D63-A78A-D859E3A24C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -99,9 +99,6 @@
     <t>Nombre = Juan</t>
   </si>
   <si>
-    <t xml:space="preserve">Mail validation </t>
-  </si>
-  <si>
     <t>Apellido = Gimenez</t>
   </si>
   <si>
@@ -175,13 +172,25 @@
   </si>
   <si>
     <t>Se crea la cuenta</t>
+  </si>
+  <si>
+    <t>click in login</t>
+  </si>
+  <si>
+    <t>click in register</t>
+  </si>
+  <si>
+    <t>confirmar contraseña</t>
+  </si>
+  <si>
+    <t>Mail validation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -280,6 +289,14 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -555,7 +572,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -654,6 +671,12 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -732,6 +755,10 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1015,10 +1042,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1033,10 +1060,10 @@
       <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="54" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="55"/>
+      <c r="D1" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="57"/>
     </row>
     <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
@@ -1111,37 +1138,41 @@
         <v>2</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="D9" s="20">
         <v>2</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A10" s="18">
         <v>3</v>
       </c>
-      <c r="B10" s="19"/>
+      <c r="B10" s="19" t="s">
+        <v>49</v>
+      </c>
       <c r="D10" s="20">
         <v>3</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="22" x14ac:dyDescent="0.35">
       <c r="A11" s="18">
         <v>4</v>
       </c>
-      <c r="B11" s="19"/>
+      <c r="B11" s="19" t="s">
+        <v>50</v>
+      </c>
       <c r="D11" s="23">
         <v>4</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="22" x14ac:dyDescent="0.35">
@@ -1149,7 +1180,7 @@
         <v>5</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="22" x14ac:dyDescent="0.35">
@@ -1157,7 +1188,7 @@
         <v>6</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="22" x14ac:dyDescent="0.35">
@@ -1165,7 +1196,7 @@
         <v>7</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -1173,7 +1204,7 @@
         <v>8</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.35">
@@ -1181,7 +1212,7 @@
         <v>9</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.35">
@@ -1189,7 +1220,7 @@
         <v>10</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1209,31 +1240,31 @@
       <c r="E21" s="32"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="46" t="s">
+      <c r="A23" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="50"/>
+      <c r="B23" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="52"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="47"/>
-      <c r="B24" s="51"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="53"/>
+      <c r="A24" s="49"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="55"/>
     </row>
     <row r="25" spans="1:5" ht="24" x14ac:dyDescent="0.35">
       <c r="A25" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="37"/>
+      <c r="B25" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="39"/>
       <c r="D25" s="26" t="s">
         <v>15</v>
       </c>
@@ -1245,178 +1276,185 @@
       <c r="A27" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="58" t="s">
+      <c r="B27" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="59"/>
-      <c r="D27" s="56" t="s">
+      <c r="C27" s="61"/>
+      <c r="D27" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="E27" s="57"/>
+      <c r="E27" s="59"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="29">
         <v>1</v>
       </c>
-      <c r="B28" s="44" t="s">
+      <c r="B28" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="47"/>
+      <c r="D28" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="45"/>
-      <c r="D28" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="E28" s="45"/>
+      <c r="E28" s="47"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="29">
         <v>2</v>
       </c>
-      <c r="B29" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="45"/>
-      <c r="D29" s="44" t="s">
+      <c r="B29" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="E29" s="45"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="47"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="29">
         <v>3</v>
       </c>
-      <c r="B30" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" s="45"/>
-      <c r="D30" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="E30" s="45"/>
+      <c r="B30" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="47"/>
+      <c r="D30" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="47"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="29">
         <v>4</v>
       </c>
-      <c r="B31" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="C31" s="45"/>
-      <c r="D31" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="E31" s="45"/>
+      <c r="B31" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="47"/>
+      <c r="D31" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" s="47"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="29">
         <v>5</v>
       </c>
-      <c r="B32" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" s="45"/>
-      <c r="D32" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="E32" s="45"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B32" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="47"/>
+      <c r="D32" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" s="47"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="29">
         <v>6</v>
       </c>
-      <c r="B33" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="C33" s="45"/>
-      <c r="D33" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="E33" s="45"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B33" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" s="47"/>
+      <c r="D33" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33" s="47"/>
+      <c r="G33" s="63"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="30">
         <v>7</v>
       </c>
-      <c r="B34" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" s="39"/>
-      <c r="D34" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="E34" s="45"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B34" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="41"/>
+      <c r="D34" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34" s="47"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="30">
         <v>8</v>
       </c>
-      <c r="B35" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35" s="39"/>
-      <c r="D35" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="E35" s="45"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B35" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="41"/>
+      <c r="D35" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="E35" s="47"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="30">
         <v>9</v>
       </c>
-      <c r="B36" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="C36" s="39"/>
-      <c r="D36" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="E36" s="45"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B36" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="41"/>
+      <c r="D36" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="E36" s="47"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="30">
         <v>10</v>
       </c>
-      <c r="B37" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="C37" s="39"/>
-      <c r="D37" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="E37" s="41"/>
-    </row>
-    <row r="38" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="41"/>
+      <c r="D37" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="E37" s="62"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="30">
         <v>11</v>
       </c>
-      <c r="B38" s="42" t="s">
+      <c r="B38" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" s="35"/>
+      <c r="D38" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="E38" s="43"/>
+    </row>
+    <row r="39" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="30">
+        <v>12</v>
+      </c>
+      <c r="B39" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="44"/>
+      <c r="D39" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="C38" s="42"/>
-      <c r="D38" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="E38" s="43"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="33"/>
-      <c r="B39" s="34"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="35"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E39" s="45"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="33"/>
-      <c r="B40" s="34"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="33"/>
-      <c r="B41" s="34"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="35"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="34">
@@ -1425,27 +1463,15 @@
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D33:E33"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="B38:C38"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="D39:E39"/>
@@ -1454,10 +1480,23 @@
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E10" r:id="rId1" display="Mail=jaunGim@gmail.com" xr:uid="{7FE07CA4-2F0C-4750-BF95-E56E4C574D37}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>